--- a/data/trans_orig/P1430-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1430-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E6F6A87-E207-4402-88E9-2F362DCF5504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D2BF723-9896-4C24-8A3C-96DFEB712E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9549836B-FE83-4ADD-BE6C-B6C3FC3592D7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ADD05F88-34B8-4463-84D2-AD707C237E8E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="188">
   <si>
     <t>Población con diagnóstico de cirrosis en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -94,13 +94,13 @@
     <t>0,94%</t>
   </si>
   <si>
-    <t>5,81%</t>
+    <t>4,79%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>2,31%</t>
+    <t>2,62%</t>
   </si>
   <si>
     <t>No</t>
@@ -118,13 +118,13 @@
     <t>99,06%</t>
   </si>
   <si>
-    <t>94,19%</t>
+    <t>95,21%</t>
   </si>
   <si>
     <t>99,54%</t>
   </si>
   <si>
-    <t>97,69%</t>
+    <t>97,38%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -139,417 +139,414 @@
     <t>1,08%</t>
   </si>
   <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cirrosis en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
   </si>
   <si>
     <t>99,65%</t>
   </si>
   <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cirrosis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
   <si>
     <t>99,39%</t>
   </si>
   <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
   </si>
   <si>
     <t>99,45%</t>
   </si>
   <si>
+    <t>99,23%</t>
+  </si>
+  <si>
     <t>Población con diagnóstico de cirrosis en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
@@ -584,12 +581,6 @@
   </si>
   <si>
     <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
   </si>
   <si>
     <t>99,93%</t>
@@ -1022,7 +1013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEA0349-AF05-4958-9C91-E73C278E5B70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BBBBB2-AE1F-4C92-AB51-E1CD4530747D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1418,13 +1409,13 @@
         <v>3079</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -1433,13 +1424,13 @@
         <v>9426</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1454,13 +1445,13 @@
         <v>581357</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H10" s="7">
         <v>548</v>
@@ -1469,13 +1460,13 @@
         <v>582066</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M10" s="7">
         <v>1094</v>
@@ -1484,13 +1475,13 @@
         <v>1163423</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1546,7 +1537,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1564,7 +1555,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1579,7 +1570,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1594,7 +1585,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1609,13 +1600,13 @@
         <v>8148</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -1627,10 +1618,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -1639,13 +1630,13 @@
         <v>16973</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1660,13 +1651,13 @@
         <v>1009799</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H14" s="7">
         <v>930</v>
@@ -1675,13 +1666,13 @@
         <v>1020148</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M14" s="7">
         <v>1858</v>
@@ -1690,13 +1681,13 @@
         <v>2029947</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1752,7 +1743,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1770,37 +1761,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1815,13 +1806,13 @@
         <v>6391</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1830,13 +1821,13 @@
         <v>3133</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -1845,13 +1836,13 @@
         <v>9523</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1866,13 +1857,13 @@
         <v>751232</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H18" s="7">
         <v>702</v>
@@ -1881,13 +1872,13 @@
         <v>774041</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M18" s="7">
         <v>1386</v>
@@ -1896,13 +1887,13 @@
         <v>1525274</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1958,7 +1949,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1976,7 +1967,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -1991,7 +1982,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2006,7 +1997,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,13 +2012,13 @@
         <v>4047</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -2036,13 +2027,13 @@
         <v>6083</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -2051,13 +2042,13 @@
         <v>10130</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,13 +2063,13 @@
         <v>943692</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H22" s="7">
         <v>997</v>
@@ -2087,13 +2078,13 @@
         <v>1045818</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="M22" s="7">
         <v>1904</v>
@@ -2102,13 +2093,13 @@
         <v>1989510</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,7 +2173,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2197,7 +2188,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2212,7 +2203,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,13 +2218,13 @@
         <v>24933</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -2242,13 +2233,13 @@
         <v>22172</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -2257,13 +2248,13 @@
         <v>47104</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,13 +2269,13 @@
         <v>3401846</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="H26" s="7">
         <v>3275</v>
@@ -2293,10 +2284,10 @@
         <v>3532926</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>110</v>
@@ -2305,7 +2296,7 @@
         <v>6462</v>
       </c>
       <c r="N26" s="7">
-        <v>6934773</v>
+        <v>6934774</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>111</v>
@@ -2314,7 +2305,7 @@
         <v>112</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,7 +2347,7 @@
         <v>6505</v>
       </c>
       <c r="N27" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>24</v>
@@ -2391,7 +2382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522BFF8E-4F66-4BF2-B929-AC981F41DF1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A325715E-A513-4A7A-B0F8-199401572FF1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2551,7 +2542,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,13 +2587,13 @@
         <v>2228</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,10 +2608,10 @@
         <v>114318</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -2635,7 +2626,7 @@
         <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>24</v>
@@ -2647,10 +2638,10 @@
         <v>227678</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>22</v>
@@ -2727,7 +2718,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2757,7 +2748,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,13 +2763,13 @@
         <v>2167</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -2787,13 +2778,13 @@
         <v>2030</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -2802,13 +2793,13 @@
         <v>4197</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,10 +2814,10 @@
         <v>556087</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>22</v>
@@ -2838,10 +2829,10 @@
         <v>557449</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>22</v>
@@ -2853,13 +2844,13 @@
         <v>1113536</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,7 +2906,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2933,7 +2924,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2948,7 +2939,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2963,7 +2954,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,13 +2969,13 @@
         <v>5894</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -2993,13 +2984,13 @@
         <v>5071</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3008,13 +2999,13 @@
         <v>10965</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,13 +3020,13 @@
         <v>1016537</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H14" s="7">
         <v>973</v>
@@ -3044,13 +3035,13 @@
         <v>1037842</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="M14" s="7">
         <v>1919</v>
@@ -3059,13 +3050,13 @@
         <v>2054379</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,7 +3112,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3139,7 +3130,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3154,7 +3145,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3169,7 +3160,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,13 +3175,13 @@
         <v>6663</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3199,13 +3190,13 @@
         <v>2344</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -3214,13 +3205,13 @@
         <v>9007</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,13 +3226,13 @@
         <v>752889</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="H18" s="7">
         <v>734</v>
@@ -3250,10 +3241,10 @@
         <v>782667</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>22</v>
@@ -3265,13 +3256,13 @@
         <v>1535556</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,7 +3318,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3345,7 +3336,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3360,7 +3351,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3375,7 +3366,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,10 +3381,10 @@
         <v>7811</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>154</v>
@@ -3405,10 +3396,10 @@
         <v>4275</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>155</v>
@@ -3423,10 +3414,10 @@
         <v>156</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,13 +3432,13 @@
         <v>929756</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>158</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="H22" s="7">
         <v>955</v>
@@ -3459,10 +3450,10 @@
         <v>110</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M22" s="7">
         <v>1880</v>
@@ -3471,13 +3462,13 @@
         <v>1969260</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,7 +3542,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3566,7 +3557,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3581,7 +3572,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,13 +3587,13 @@
         <v>24764</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -3611,13 +3602,13 @@
         <v>13720</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M25" s="7">
         <v>34</v>
@@ -3626,13 +3617,13 @@
         <v>38483</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,13 +3638,13 @@
         <v>3369586</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H26" s="7">
         <v>3326</v>
@@ -3662,13 +3653,13 @@
         <v>3530822</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M26" s="7">
         <v>6535</v>
@@ -3677,13 +3668,13 @@
         <v>6900409</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,7 +3751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6EAD89-E206-4D6B-A564-9A96B74A8A29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1822108F-C15A-4279-AB50-EAB782C7C030}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3777,7 +3768,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3887,7 +3878,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>24</v>
@@ -3902,7 +3893,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>24</v>
@@ -3917,7 +3908,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>24</v>
@@ -3941,23 +3932,23 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
@@ -3971,7 +3962,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,23 +3983,23 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
@@ -4022,7 +4013,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,7 +4084,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>24</v>
@@ -4108,7 +4099,7 @@
         <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -4123,7 +4114,7 @@
         <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>24</v>
@@ -4147,37 +4138,37 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,37 +4189,37 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,7 +4275,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4299,7 +4290,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>24</v>
@@ -4314,7 +4305,7 @@
         <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>24</v>
@@ -4329,7 +4320,7 @@
         <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>24</v>
@@ -4353,7 +4344,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4368,7 +4359,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4383,7 +4374,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,7 +4395,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4419,7 +4410,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4434,7 +4425,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,7 +4481,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4505,7 +4496,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>24</v>
@@ -4520,7 +4511,7 @@
         <v>22</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>24</v>
@@ -4535,7 +4526,7 @@
         <v>22</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>24</v>
@@ -4559,7 +4550,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4574,7 +4565,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4589,7 +4580,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,7 +4601,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4625,7 +4616,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4640,7 +4631,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,7 +4687,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4711,7 +4702,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>24</v>
@@ -4726,7 +4717,7 @@
         <v>22</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -4741,7 +4732,7 @@
         <v>22</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>24</v>
@@ -4765,7 +4756,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4780,7 +4771,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4795,7 +4786,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,7 +4807,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4831,7 +4822,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4846,7 +4837,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,7 +4908,7 @@
         <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>24</v>
@@ -4932,7 +4923,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>24</v>
@@ -4947,7 +4938,7 @@
         <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>24</v>
@@ -4971,7 +4962,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4986,7 +4977,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5001,7 +4992,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,7 +5013,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5037,7 +5028,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5052,7 +5043,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1430-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1430-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D2BF723-9896-4C24-8A3C-96DFEB712E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5295522B-7C6D-4D04-846D-0189D4796A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ADD05F88-34B8-4463-84D2-AD707C237E8E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{093BAC1F-9688-40ED-9122-30DC2BA28DE6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="184">
   <si>
     <t>Población con diagnóstico de cirrosis en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No procede</t>
@@ -94,13 +94,13 @@
     <t>0,94%</t>
   </si>
   <si>
-    <t>4,79%</t>
+    <t>4,65%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>2,62%</t>
+    <t>2,3%</t>
   </si>
   <si>
     <t>No</t>
@@ -118,16 +118,16 @@
     <t>99,06%</t>
   </si>
   <si>
-    <t>95,21%</t>
+    <t>95,35%</t>
   </si>
   <si>
     <t>99,54%</t>
   </si>
   <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -139,34 +139,40 @@
     <t>1,08%</t>
   </si>
   <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>1,4%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
   </si>
   <si>
     <t>98,92%</t>
   </si>
   <si>
-    <t>97,61%</t>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,42%</t>
+    <t>98,6%</t>
   </si>
   <si>
     <t>99,83%</t>
@@ -175,13 +181,13 @@
     <t>99,2%</t>
   </si>
   <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,2%</t>
@@ -193,13 +199,13 @@
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
   </si>
   <si>
     <t>0,83%</t>
@@ -208,379 +214,361 @@
     <t>0,51%</t>
   </si>
   <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cirrosis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
+    <t>1,05%</t>
   </si>
   <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cirrosis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cirrosis en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
   </si>
   <si>
     <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cirrosis en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
   </si>
   <si>
     <t>99,93%</t>
@@ -1013,7 +1001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BBBBB2-AE1F-4C92-AB51-E1CD4530747D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86639803-ED19-4BA1-8AB9-E9090FF4E300}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1409,13 +1397,13 @@
         <v>3079</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -1424,13 +1412,13 @@
         <v>9426</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1445,13 +1433,13 @@
         <v>581357</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10" s="7">
         <v>548</v>
@@ -1460,13 +1448,13 @@
         <v>582066</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
         <v>1094</v>
@@ -1475,13 +1463,13 @@
         <v>1163423</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1537,7 +1525,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1555,7 +1543,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1570,7 +1558,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1585,7 +1573,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1600,13 +1588,13 @@
         <v>8148</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -1618,10 +1606,10 @@
         <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -1630,13 +1618,13 @@
         <v>16973</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1651,13 +1639,13 @@
         <v>1009799</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>930</v>
@@ -1666,13 +1654,13 @@
         <v>1020148</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M14" s="7">
         <v>1858</v>
@@ -1681,13 +1669,13 @@
         <v>2029947</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1743,7 +1731,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1761,7 +1749,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1776,7 +1764,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1791,7 +1779,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1806,13 +1794,13 @@
         <v>6391</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1821,13 +1809,13 @@
         <v>3133</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -1836,13 +1824,13 @@
         <v>9523</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1857,13 +1845,13 @@
         <v>751232</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H18" s="7">
         <v>702</v>
@@ -1872,13 +1860,13 @@
         <v>774041</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M18" s="7">
         <v>1386</v>
@@ -1887,13 +1875,13 @@
         <v>1525274</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1949,7 +1937,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1967,7 +1955,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -1982,7 +1970,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -1997,7 +1985,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2012,13 +2000,13 @@
         <v>4047</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -2027,13 +2015,13 @@
         <v>6083</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -2042,13 +2030,13 @@
         <v>10130</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,13 +2051,13 @@
         <v>943692</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H22" s="7">
         <v>997</v>
@@ -2078,13 +2066,13 @@
         <v>1045818</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M22" s="7">
         <v>1904</v>
@@ -2093,13 +2081,13 @@
         <v>1989510</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,7 +2161,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2188,7 +2176,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2203,7 +2191,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,13 +2206,13 @@
         <v>24933</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -2233,13 +2221,13 @@
         <v>22172</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -2251,10 +2239,10 @@
         <v>104</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,13 +2257,13 @@
         <v>3401846</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="H26" s="7">
         <v>3275</v>
@@ -2284,28 +2272,28 @@
         <v>3532926</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="M26" s="7">
         <v>6462</v>
       </c>
       <c r="N26" s="7">
-        <v>6934774</v>
+        <v>6934773</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,7 +2335,7 @@
         <v>6505</v>
       </c>
       <c r="N27" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>24</v>
@@ -2361,7 +2349,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2382,7 +2370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A325715E-A513-4A7A-B0F8-199401572FF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A821C2E7-9720-458D-8547-A2DFC04F4D8B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2399,7 +2387,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2512,23 +2500,23 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
@@ -2542,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,14 +2545,14 @@
         <v>2228</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
@@ -2578,7 +2566,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -2587,7 +2575,7 @@
         <v>2228</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
@@ -2638,10 +2626,10 @@
         <v>227678</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>22</v>
@@ -2718,7 +2706,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2763,7 +2751,7 @@
         <v>2167</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
@@ -2778,7 +2766,7 @@
         <v>2030</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
@@ -2793,13 +2781,13 @@
         <v>4197</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,10 +2802,10 @@
         <v>556087</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>22</v>
@@ -2829,10 +2817,10 @@
         <v>557449</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>22</v>
@@ -2844,13 +2832,13 @@
         <v>1113536</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,7 +2894,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2924,7 +2912,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2939,7 +2927,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2954,7 +2942,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2957,13 @@
         <v>5894</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -2984,13 +2972,13 @@
         <v>5071</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -2999,13 +2987,13 @@
         <v>10965</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,13 +3008,13 @@
         <v>1016537</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H14" s="7">
         <v>973</v>
@@ -3035,13 +3023,13 @@
         <v>1037842</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>1919</v>
@@ -3050,13 +3038,13 @@
         <v>2054379</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,7 +3100,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3130,7 +3118,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3145,7 +3133,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3160,7 +3148,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,13 +3163,13 @@
         <v>6663</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3190,13 +3178,13 @@
         <v>2344</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -3205,13 +3193,13 @@
         <v>9007</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,13 +3214,13 @@
         <v>752889</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H18" s="7">
         <v>734</v>
@@ -3241,10 +3229,10 @@
         <v>782667</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>22</v>
@@ -3256,13 +3244,13 @@
         <v>1535556</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,7 +3306,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3336,7 +3324,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3351,7 +3339,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3366,7 +3354,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,13 +3369,13 @@
         <v>7811</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -3396,13 +3384,13 @@
         <v>4275</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -3411,10 +3399,10 @@
         <v>12086</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>32</v>
@@ -3432,13 +3420,13 @@
         <v>929756</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>955</v>
@@ -3447,13 +3435,13 @@
         <v>1039504</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M22" s="7">
         <v>1880</v>
@@ -3462,13 +3450,13 @@
         <v>1969260</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,7 +3530,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3557,7 +3545,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3572,7 +3560,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,13 +3575,13 @@
         <v>24764</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -3602,13 +3590,13 @@
         <v>13720</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>34</v>
@@ -3617,13 +3605,13 @@
         <v>38483</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,13 +3626,13 @@
         <v>3369586</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="H26" s="7">
         <v>3326</v>
@@ -3653,13 +3641,13 @@
         <v>3530822</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M26" s="7">
         <v>6535</v>
@@ -3668,13 +3656,13 @@
         <v>6900409</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,7 +3718,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3751,7 +3739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1822108F-C15A-4279-AB50-EAB782C7C030}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B82A6D-86D9-4CFA-9D96-FB2FD8A3306C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3768,7 +3756,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3878,7 +3866,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>24</v>
@@ -3893,7 +3881,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>24</v>
@@ -3908,7 +3896,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>24</v>
@@ -3932,7 +3920,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3947,7 +3935,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3962,7 +3950,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,7 +3971,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3998,7 +3986,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4013,7 +4001,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,7 +4072,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>24</v>
@@ -4099,7 +4087,7 @@
         <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>24</v>
@@ -4114,7 +4102,7 @@
         <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>24</v>
@@ -4138,7 +4126,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4153,7 +4141,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4168,7 +4156,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,7 +4177,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4204,7 +4192,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4219,7 +4207,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,7 +4263,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4290,7 +4278,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>24</v>
@@ -4305,7 +4293,7 @@
         <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>24</v>
@@ -4320,7 +4308,7 @@
         <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>24</v>
@@ -4344,7 +4332,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4359,7 +4347,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4374,7 +4362,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,7 +4383,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4410,7 +4398,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4425,7 +4413,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,7 +4469,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4496,7 +4484,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>24</v>
@@ -4511,7 +4499,7 @@
         <v>22</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>24</v>
@@ -4526,7 +4514,7 @@
         <v>22</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>24</v>
@@ -4550,7 +4538,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4580,7 +4568,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,7 +4589,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4631,7 +4619,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,7 +4675,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4702,7 +4690,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>24</v>
@@ -4717,7 +4705,7 @@
         <v>22</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>24</v>
@@ -4732,7 +4720,7 @@
         <v>22</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>24</v>
@@ -4756,7 +4744,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4771,7 +4759,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4786,7 +4774,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,7 +4795,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4822,7 +4810,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4837,7 +4825,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,7 +4896,7 @@
         <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>24</v>
@@ -4923,7 +4911,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>24</v>
@@ -4932,13 +4920,13 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>24</v>
@@ -4962,7 +4950,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4977,7 +4965,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -4992,7 +4980,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,7 +5001,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5028,7 +5016,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5043,7 +5031,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,7 +5073,7 @@
         <v>8743</v>
       </c>
       <c r="N27" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>24</v>
@@ -5099,7 +5087,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1430-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1430-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95BA16A6-140F-44F5-935E-96F24A309E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{542DF56E-867E-4290-A4CE-DBD27D60B0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5E4FC101-1617-42E2-8B86-6CFCA79629C9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E6B2D4ED-1BC2-458F-BCC9-22567C7E034D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="150">
   <si>
     <t>Población con diagnóstico de cirrosis en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -66,448 +66,418 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de cirrosis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de cirrosis en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
   </si>
   <si>
     <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
   </si>
   <si>
     <t>99,3%</t>
@@ -928,8 +898,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9EC2EE-75B0-485A-B70A-194DDFFB327B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{600A4242-D9D2-42E9-9AEB-A824778E1242}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1046,10 +1016,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>6347</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1061,85 +1031,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>1053</v>
+        <v>4132</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>1053</v>
+        <v>10479</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>122</v>
+        <v>668</v>
       </c>
       <c r="D5" s="7">
-        <v>115765</v>
+        <v>697122</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>98</v>
+        <v>646</v>
       </c>
       <c r="I5" s="7">
-        <v>110852</v>
+        <v>692918</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
-        <v>220</v>
+        <v>1314</v>
       </c>
       <c r="N5" s="7">
-        <v>226617</v>
+        <v>1390040</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1148,153 +1118,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>6347</v>
+        <v>8148</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>3079</v>
+        <v>8825</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>9426</v>
+        <v>16973</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>546</v>
+        <v>928</v>
       </c>
       <c r="D8" s="7">
-        <v>581357</v>
+        <v>1009799</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>548</v>
+        <v>930</v>
       </c>
       <c r="I8" s="7">
-        <v>582066</v>
+        <v>1020148</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>1094</v>
+        <v>1858</v>
       </c>
       <c r="N8" s="7">
-        <v>1163423</v>
+        <v>2029948</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1303,153 +1273,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1028973</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1874</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2046921</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6391</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3133</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="7">
         <v>8</v>
       </c>
-      <c r="D10" s="7">
-        <v>8148</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="7">
-        <v>8</v>
-      </c>
-      <c r="I10" s="7">
-        <v>8825</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="N10" s="7">
+        <v>9523</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M10" s="7">
-        <v>16</v>
-      </c>
-      <c r="N10" s="7">
-        <v>16973</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>928</v>
+        <v>684</v>
       </c>
       <c r="D11" s="7">
-        <v>1009799</v>
+        <v>751232</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
-        <v>930</v>
+        <v>702</v>
       </c>
       <c r="I11" s="7">
-        <v>1020148</v>
+        <v>774041</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1386</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1525274</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1858</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2029947</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1458,144 +1428,144 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1028973</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>1874</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2046920</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>6391</v>
+        <v>4047</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>3133</v>
+        <v>6083</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>68</v>
       </c>
       <c r="M13" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>9523</v>
+        <v>10130</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>684</v>
+        <v>907</v>
       </c>
       <c r="D14" s="7">
-        <v>751232</v>
+        <v>943692</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
-        <v>702</v>
+        <v>997</v>
       </c>
       <c r="I14" s="7">
-        <v>774041</v>
+        <v>1045818</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="M14" s="7">
-        <v>1386</v>
+        <v>1904</v>
       </c>
       <c r="N14" s="7">
-        <v>1525274</v>
+        <v>1989510</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>77</v>
@@ -1604,7 +1574,7 @@
         <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1613,117 +1583,117 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D16" s="7">
-        <v>4047</v>
+        <v>24933</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="I16" s="7">
-        <v>6083</v>
+        <v>22172</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="N16" s="7">
-        <v>10130</v>
+        <v>47104</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>907</v>
+        <v>3187</v>
       </c>
       <c r="D17" s="7">
-        <v>943692</v>
+        <v>3401846</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>87</v>
@@ -1732,34 +1702,34 @@
         <v>88</v>
       </c>
       <c r="H17" s="7">
-        <v>997</v>
+        <v>3275</v>
       </c>
       <c r="I17" s="7">
-        <v>1045818</v>
+        <v>3532926</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="M17" s="7">
-        <v>1904</v>
+        <v>6462</v>
       </c>
       <c r="N17" s="7">
-        <v>1989510</v>
+        <v>6934773</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1768,217 +1738,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3555098</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6505</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6981877</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>22</v>
-      </c>
-      <c r="D19" s="7">
-        <v>24933</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="7">
-        <v>21</v>
-      </c>
-      <c r="I19" s="7">
-        <v>22172</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="7">
-        <v>43</v>
-      </c>
-      <c r="N19" s="7">
-        <v>47104</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3187</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3401846</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3275</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3532926</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6462</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6934773</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3555098</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6505</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6981877</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>104</v>
+      <c r="A19" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1991,8 +1805,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331C0C9F-C3BA-413F-8626-6C8DCCBF7B37}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070A8AB0-4D89-468B-BEEF-0D5F85E6FCCF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2008,7 +1822,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2109,100 +1923,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4395</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
-        <v>2228</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2030</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>2228</v>
+        <v>6425</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
+        <v>648</v>
+      </c>
+      <c r="D5" s="7">
+        <v>670405</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="7">
+        <v>664</v>
+      </c>
+      <c r="I5" s="7">
+        <v>670809</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1312</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1341214</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="D5" s="7">
-        <v>114318</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>115</v>
-      </c>
-      <c r="I5" s="7">
-        <v>113360</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="7">
-        <v>226</v>
-      </c>
-      <c r="N5" s="7">
-        <v>227678</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2211,153 +2025,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>2167</v>
+        <v>5894</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>5071</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" s="7">
+        <v>9</v>
+      </c>
+      <c r="N7" s="7">
+        <v>10965</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2030</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M7" s="7">
-        <v>4</v>
-      </c>
-      <c r="N7" s="7">
-        <v>4197</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>537</v>
+        <v>946</v>
       </c>
       <c r="D8" s="7">
-        <v>556087</v>
+        <v>1016537</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="7">
+        <v>973</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1037842</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1919</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2054379</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>549</v>
-      </c>
-      <c r="I8" s="7">
-        <v>557449</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1086</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1113536</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2366,153 +2180,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>5894</v>
+        <v>6663</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2344</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>8</v>
+      </c>
+      <c r="N10" s="7">
+        <v>9007</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5071</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M10" s="7">
-        <v>9</v>
-      </c>
-      <c r="N10" s="7">
-        <v>10965</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>946</v>
+        <v>690</v>
       </c>
       <c r="D11" s="7">
-        <v>1016537</v>
+        <v>752889</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="7">
+        <v>734</v>
+      </c>
+      <c r="I11" s="7">
+        <v>782667</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1424</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1535556</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="7">
-        <v>973</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1037842</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1919</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2054379</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2521,153 +2335,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>6663</v>
+        <v>7811</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4275</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>11</v>
+      </c>
+      <c r="N13" s="7">
+        <v>12086</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2344</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M13" s="7">
-        <v>8</v>
-      </c>
-      <c r="N13" s="7">
-        <v>9007</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>690</v>
+        <v>925</v>
       </c>
       <c r="D14" s="7">
-        <v>752889</v>
+        <v>929756</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="7">
+        <v>955</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1039504</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1880</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1969260</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="7">
-        <v>734</v>
-      </c>
-      <c r="I14" s="7">
-        <v>782667</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1424</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1535556</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,153 +2490,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D16" s="7">
-        <v>7811</v>
+        <v>24764</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="7">
+        <v>12</v>
+      </c>
+      <c r="I16" s="7">
+        <v>13720</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H16" s="7">
-        <v>4</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4275</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>34</v>
+      </c>
+      <c r="N16" s="7">
+        <v>38483</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="M16" s="7">
-        <v>11</v>
-      </c>
-      <c r="N16" s="7">
-        <v>12086</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="P16" s="7" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>925</v>
+        <v>3209</v>
       </c>
       <c r="D17" s="7">
-        <v>929756</v>
+        <v>3369586</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3326</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3530822</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" s="7">
+        <v>6535</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6900409</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H17" s="7">
-        <v>955</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1039504</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1880</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1969260</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,217 +2645,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>22</v>
-      </c>
-      <c r="D19" s="7">
-        <v>24764</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H19" s="7">
-        <v>12</v>
-      </c>
-      <c r="I19" s="7">
-        <v>13720</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M19" s="7">
-        <v>34</v>
-      </c>
-      <c r="N19" s="7">
-        <v>38483</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3369586</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3326</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3530822</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6535</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6900409</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>104</v>
+      <c r="A19" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
